--- a/Report_Face_Detection.xlsx
+++ b/Report_Face_Detection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063C756-AB85-48E7-9F93-151AC9592F19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB0E09-C06D-4164-94B5-68E0894086DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>1 - Thực hiện quét khuôn mặt lưu ảnh vào forder và thông tin xuống db</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>- Đang nghiên cứu tách file map network</t>
+  </si>
+  <si>
+    <t>* Hiện tại phát hiện trong khung hình có sự sống thì cho ảnh vào vẫn phát hiện ra người.</t>
+  </si>
+  <si>
+    <t>- Đang kiểm tra lại source code phần xử lý kiểm tra phát hiện sự sống trong khung hình thì mới tiếp tục nhận diện khuôn mặt.</t>
+  </si>
+  <si>
+    <t>* Chưa thể phát hiện được những khuôn mặt ở khía độ góc cạnh như nghiêng hay cúi</t>
+  </si>
+  <si>
+    <t>- Hiện tại sẽ bỏ qua không xử lý, sẽ tập trung xử lý nâng cao độ chính xác và tốc độ xử lý nhận diện với khuôn mặt chính diện</t>
   </si>
 </sst>
 </file>
@@ -541,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,66 +900,66 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -964,8 +976,25 @@
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
